--- a/ResearchJob/CrashScenarios_Info.xlsx
+++ b/ResearchJob/CrashScenarios_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Fall_2019\ResearchJob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301648F0-9BAD-4A27-8BAA-053A21FD7612}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A02FF-6FB8-4FEA-A242-370789EDC579}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33840" yWindow="3030" windowWidth="28800" windowHeight="15555" xr2:uid="{295B6870-A18F-4097-A356-925D8138181F}"/>
+    <workbookView xWindow="9600" yWindow="2340" windowWidth="28800" windowHeight="15555" xr2:uid="{295B6870-A18F-4097-A356-925D8138181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
